--- a/boms/BOM1.xlsx
+++ b/boms/BOM1.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr checkCompatibility="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="360" yWindow="270" windowWidth="14535" windowHeight="7635"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="BOM" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,41 +16,168 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+  <si>
+    <t>VENDOR</t>
+  </si>
+  <si>
+    <t>SHIPPING ESTIMATE</t>
+  </si>
+  <si>
+    <t>PER ITEM</t>
+  </si>
+  <si>
+    <t>LIST PRICE</t>
+  </si>
+  <si>
+    <t>NET PRICE</t>
+  </si>
+  <si>
+    <t>QUANTITY</t>
+  </si>
+  <si>
+    <t>FREE</t>
+  </si>
+  <si>
+    <t>ITEM</t>
+  </si>
+  <si>
+    <t>SainSmart</t>
+  </si>
+  <si>
+    <t>Quarton Laser Module VLM-650-03 LPA (Economical Dot Laser)</t>
+  </si>
+  <si>
+    <t>Plastic Security CCTV CCD Dome Shape Camera Housing Cover Black</t>
+  </si>
+  <si>
+    <t>SainSmart Nano V3 ATMEGA328 for Arduino</t>
+  </si>
+  <si>
+    <t>20-011-941</t>
+  </si>
+  <si>
+    <t>SHIPPING</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Zitrades HC-SR501 Human Sensor Module Pyroelectric Infrared</t>
+  </si>
+  <si>
+    <t>108-00001-101-1-9</t>
+  </si>
+  <si>
+    <t>VLM-635/650-03</t>
+  </si>
+  <si>
+    <t>VENDOR PART #</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>PER UNIT</t>
+  </si>
+  <si>
+    <t>VicTsing 5pcs Micro Servo Motor SG90 9G RC*</t>
+  </si>
+  <si>
+    <t>NOTES:</t>
+  </si>
+  <si>
+    <t>*Item price is for 5 servos - only pkg sold. Unit only requires 2 servos each.</t>
+  </si>
+  <si>
+    <t>Amazon/VicDirect**</t>
+  </si>
+  <si>
+    <t>Amazon/Zitrades**</t>
+  </si>
+  <si>
+    <t>Amazon/Quarton**</t>
+  </si>
+  <si>
+    <t>Amazon/Uxcell**</t>
+  </si>
+  <si>
+    <t>**Vendor primarily sells through Amazon</t>
+  </si>
   <si>
     <t>Bill of Materials</t>
   </si>
   <si>
-    <t>SuperDuper</t>
+    <t>T14 - Super Duper</t>
+  </si>
+  <si>
+    <t>DATE &amp; VERSION:</t>
+  </si>
+  <si>
+    <t>11/3/14 - v11.01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="30"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="14"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -61,7 +188,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -69,16 +196,269 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -95,16 +475,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>892209</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>141162</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -127,8 +507,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3400425" y="57150"/>
-          <a:ext cx="847725" cy="461963"/>
+          <a:off x="9153526" y="57150"/>
+          <a:ext cx="1692308" cy="922212"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -427,27 +807,347 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="6"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="39" x14ac:dyDescent="0.6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.4">
+      <c r="B1" s="38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="B2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="39"/>
+    </row>
+    <row r="5" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="10" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="32"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="11">
+        <v>13.99</v>
+      </c>
+      <c r="H7" s="12">
+        <f>E7*G7</f>
+        <v>13.99</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="11">
+        <v>15.99</v>
+      </c>
+      <c r="H8" s="12">
+        <f t="shared" ref="H8:H11" si="0">E8*G8</f>
+        <v>15.99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="11">
+        <v>6.96</v>
+      </c>
+      <c r="H9" s="12">
+        <f t="shared" si="0"/>
+        <v>6.96</v>
+      </c>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="11">
+        <v>13.18</v>
+      </c>
+      <c r="H10" s="12">
+        <f t="shared" si="0"/>
+        <v>13.18</v>
+      </c>
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="11">
+        <v>11.78</v>
+      </c>
+      <c r="H11" s="12">
+        <f t="shared" si="0"/>
+        <v>11.78</v>
+      </c>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20">
         <v>0</v>
       </c>
     </row>
+    <row r="18" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24">
+        <f>SUM(H7:H17)</f>
+        <v>61.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="37" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -458,9 +1158,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
@@ -470,8 +1172,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>